--- a/Descargas/R15_Juzgado De Garantia De Chillan_Ingresos Causas Por Materia_2020-Diciembre.xlsx
+++ b/Descargas/R15_Juzgado De Garantia De Chillan_Ingresos Causas Por Materia_2020-Diciembre.xlsx
@@ -251,7 +251,7 @@
         </is>
       </c>
       <c r="B5" s="65">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="B54" s="65">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55">
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="B100" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
